--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1033863333333333</v>
+        <v>0.02261533333333333</v>
       </c>
       <c r="H2">
-        <v>0.310159</v>
+        <v>0.067846</v>
       </c>
       <c r="I2">
-        <v>0.05941750124617003</v>
+        <v>0.0136300417804998</v>
       </c>
       <c r="J2">
-        <v>0.05941750124617002</v>
+        <v>0.0136300417804998</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N2">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O2">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P2">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q2">
-        <v>0.9127977991515555</v>
+        <v>0.05258084599955556</v>
       </c>
       <c r="R2">
-        <v>8.215180192364</v>
+        <v>0.473227613996</v>
       </c>
       <c r="S2">
-        <v>0.010662208001932</v>
+        <v>0.000742196361530953</v>
       </c>
       <c r="T2">
-        <v>0.010662208001932</v>
+        <v>0.0007421963615309529</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1033863333333333</v>
+        <v>0.02261533333333333</v>
       </c>
       <c r="H3">
-        <v>0.310159</v>
+        <v>0.067846</v>
       </c>
       <c r="I3">
-        <v>0.05941750124617003</v>
+        <v>0.0136300417804998</v>
       </c>
       <c r="J3">
-        <v>0.05941750124617002</v>
+        <v>0.0136300417804998</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>58.014853</v>
       </c>
       <c r="O3">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P3">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q3">
-        <v>1.999314310180778</v>
+        <v>0.4373417462931112</v>
       </c>
       <c r="R3">
-        <v>17.993828791627</v>
+        <v>3.936075716638</v>
       </c>
       <c r="S3">
-        <v>0.02335358943262229</v>
+        <v>0.00617322613727219</v>
       </c>
       <c r="T3">
-        <v>0.02335358943262229</v>
+        <v>0.00617322613727219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1033863333333333</v>
+        <v>0.02261533333333333</v>
       </c>
       <c r="H4">
-        <v>0.310159</v>
+        <v>0.067846</v>
       </c>
       <c r="I4">
-        <v>0.05941750124617003</v>
+        <v>0.0136300417804998</v>
       </c>
       <c r="J4">
-        <v>0.05941750124617002</v>
+        <v>0.0136300417804998</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>63.102767</v>
       </c>
       <c r="O4">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P4">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q4">
-        <v>2.174654567772556</v>
+        <v>0.4756967033202222</v>
       </c>
       <c r="R4">
-        <v>19.571891109953</v>
+        <v>4.281270329882</v>
       </c>
       <c r="S4">
-        <v>0.02540170381161574</v>
+        <v>0.006714619281696655</v>
       </c>
       <c r="T4">
-        <v>0.02540170381161573</v>
+        <v>0.006714619281696655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.793952</v>
       </c>
       <c r="I5">
-        <v>0.7268115633849387</v>
+        <v>0.7621926756656362</v>
       </c>
       <c r="J5">
-        <v>0.7268115633849388</v>
+        <v>0.7621926756656363</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N5">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O5">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P5">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q5">
-        <v>11.16559904979911</v>
+        <v>2.940323760305778</v>
       </c>
       <c r="R5">
-        <v>100.490391448192</v>
+        <v>26.462913842752</v>
       </c>
       <c r="S5">
-        <v>0.1304231228929224</v>
+        <v>0.0415036607939021</v>
       </c>
       <c r="T5">
-        <v>0.1304231228929224</v>
+        <v>0.04150366079390209</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.793952</v>
       </c>
       <c r="I6">
-        <v>0.7268115633849387</v>
+        <v>0.7621926756656362</v>
       </c>
       <c r="J6">
-        <v>0.7268115633849388</v>
+        <v>0.7621926756656363</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>58.014853</v>
       </c>
       <c r="O6">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P6">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q6">
         <v>24.45617417433956</v>
@@ -818,10 +818,10 @@
         <v>220.105567569056</v>
       </c>
       <c r="S6">
-        <v>0.285667665084928</v>
+        <v>0.3452071404350455</v>
       </c>
       <c r="T6">
-        <v>0.285667665084928</v>
+        <v>0.3452071404350455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.793952</v>
       </c>
       <c r="I7">
-        <v>0.7268115633849387</v>
+        <v>0.7621926756656362</v>
       </c>
       <c r="J7">
-        <v>0.7268115633849388</v>
+        <v>0.7621926756656363</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>63.102767</v>
       </c>
       <c r="O7">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P7">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q7">
         <v>26.60098545168711</v>
@@ -880,10 +880,10 @@
         <v>239.408869065184</v>
       </c>
       <c r="S7">
-        <v>0.3107207754070884</v>
+        <v>0.3754818744366887</v>
       </c>
       <c r="T7">
-        <v>0.3107207754070884</v>
+        <v>0.3754818744366887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.115883</v>
       </c>
       <c r="I8">
-        <v>0.2137709353688912</v>
+        <v>0.2241772825538639</v>
       </c>
       <c r="J8">
-        <v>0.2137709353688912</v>
+        <v>0.224177282553864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N8">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O8">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P8">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q8">
-        <v>3.284043173051999</v>
+        <v>0.864812548662</v>
       </c>
       <c r="R8">
-        <v>29.556388557468</v>
+        <v>7.783312937958</v>
       </c>
       <c r="S8">
-        <v>0.03836024958753376</v>
+        <v>0.01220712057445162</v>
       </c>
       <c r="T8">
-        <v>0.03836024958753376</v>
+        <v>0.01220712057445161</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.115883</v>
       </c>
       <c r="I9">
-        <v>0.2137709353688912</v>
+        <v>0.2241772825538639</v>
       </c>
       <c r="J9">
-        <v>0.2137709353688912</v>
+        <v>0.224177282553864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>58.014853</v>
       </c>
       <c r="O9">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P9">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q9">
         <v>7.193087578911</v>
@@ -1004,10 +1004,10 @@
         <v>64.737788210199</v>
       </c>
       <c r="S9">
-        <v>0.08402101321207139</v>
+        <v>0.1015328553155337</v>
       </c>
       <c r="T9">
-        <v>0.08402101321207139</v>
+        <v>0.1015328553155337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.115883</v>
       </c>
       <c r="I10">
-        <v>0.2137709353688912</v>
+        <v>0.2241772825538639</v>
       </c>
       <c r="J10">
-        <v>0.2137709353688912</v>
+        <v>0.224177282553864</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>63.102767</v>
       </c>
       <c r="O10">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P10">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q10">
         <v>7.823922772028999</v>
@@ -1066,10 +1066,10 @@
         <v>70.415304948261</v>
       </c>
       <c r="S10">
-        <v>0.09138967256928607</v>
+        <v>0.1104373066638786</v>
       </c>
       <c r="T10">
-        <v>0.09138967256928607</v>
+        <v>0.1104373066638786</v>
       </c>
     </row>
   </sheetData>
